--- a/TInfineonIGBT.xlsx
+++ b/TInfineonIGBT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/PycharmProjects/YJCX_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C610BA-E467-234B-8979-77B1E30BDB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBC97A8-18CD-EB4A-875F-7FAA70F6AD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35360" yWindow="-15900" windowWidth="29520" windowHeight="34260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10804" uniqueCount="1952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10805" uniqueCount="1953">
   <si>
     <t>BSM15GD120DLCE3224BPSA1</t>
   </si>
@@ -5882,6 +5882,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>digikey status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6247,8 +6251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1284" workbookViewId="0">
-      <selection activeCell="I1342" sqref="I1342"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6272,6 +6276,9 @@
       </c>
       <c r="D1" t="s">
         <v>1944</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1952</v>
       </c>
     </row>
     <row r="2" spans="1:5">
